--- a/doc/功能权限划分表.xlsx
+++ b/doc/功能权限划分表.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t xml:space="preserve"> 生产</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H4" activeCellId="1" sqref="F6 H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,9 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10">
         <v>1</v>
